--- a/Data/Bilançolar/BRKO.xlsx
+++ b/Data/Bilançolar/BRKO.xlsx
@@ -733,7 +733,7 @@
         <v>70088283</v>
       </c>
       <c r="D2" t="n">
-        <v>62812234</v>
+        <v>64369876</v>
       </c>
       <c r="E2" t="n">
         <v>32311400</v>
@@ -1258,7 +1258,7 @@
         <v>27653497</v>
       </c>
       <c r="D5" t="n">
-        <v>24530751</v>
+        <v>26088393</v>
       </c>
       <c r="E5" t="n">
         <v>1099468</v>
@@ -2483,7 +2483,7 @@
         <v>70088283</v>
       </c>
       <c r="D12" t="n">
-        <v>62812234</v>
+        <v>64369876</v>
       </c>
       <c r="E12" t="n">
         <v>32311400</v>
@@ -2833,7 +2833,7 @@
         <v>106723844</v>
       </c>
       <c r="D14" t="n">
-        <v>106175774</v>
+        <v>106622586</v>
       </c>
       <c r="E14" t="n">
         <v>104550149</v>
@@ -2845,7 +2845,7 @@
         <v>124931620</v>
       </c>
       <c r="H14" t="n">
-        <v>111582601</v>
+        <v>130910101</v>
       </c>
       <c r="I14" t="n">
         <v>107295166</v>
@@ -4245,7 +4245,7 @@
         <v>105316632</v>
       </c>
       <c r="H22" t="n">
-        <v>84400000</v>
+        <v>105875000</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>4200716</v>
       </c>
       <c r="D28" t="n">
-        <v>3638874</v>
+        <v>4085686</v>
       </c>
       <c r="E28" t="n">
         <v>1560274</v>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7215925</v>
+        <v>5068425</v>
       </c>
       <c r="I28" t="n">
         <v>7967839</v>
@@ -5633,7 +5633,7 @@
         <v>176812127</v>
       </c>
       <c r="D30" t="n">
-        <v>168988008</v>
+        <v>170992462</v>
       </c>
       <c r="E30" t="n">
         <v>136861549</v>
@@ -5645,7 +5645,7 @@
         <v>154140576</v>
       </c>
       <c r="H30" t="n">
-        <v>135384390</v>
+        <v>154711890</v>
       </c>
       <c r="I30" t="n">
         <v>131381836</v>
@@ -5983,7 +5983,7 @@
         <v>68591300</v>
       </c>
       <c r="D32" t="n">
-        <v>63284029</v>
+        <v>66784334</v>
       </c>
       <c r="E32" t="n">
         <v>39917292</v>
@@ -6508,7 +6508,7 @@
         <v>11032020</v>
       </c>
       <c r="D35" t="n">
-        <v>33846890</v>
+        <v>37347195</v>
       </c>
       <c r="E35" t="n">
         <v>9250218</v>
@@ -8083,7 +8083,7 @@
         <v>68591300</v>
       </c>
       <c r="D44" t="n">
-        <v>63284029</v>
+        <v>66784334</v>
       </c>
       <c r="E44" t="n">
         <v>39917292</v>
@@ -10708,7 +10708,7 @@
         <v>83663341</v>
       </c>
       <c r="D59" t="n">
-        <v>85159192</v>
+        <v>83663341</v>
       </c>
       <c r="E59" t="n">
         <v>74263184</v>
@@ -10720,7 +10720,7 @@
         <v>91065771</v>
       </c>
       <c r="H59" t="n">
-        <v>84113077</v>
+        <v>103440577</v>
       </c>
       <c r="I59" t="n">
         <v>78059404</v>
@@ -10883,7 +10883,7 @@
         <v>83663341</v>
       </c>
       <c r="D60" t="n">
-        <v>85159192</v>
+        <v>83663341</v>
       </c>
       <c r="E60" t="n">
         <v>74263184</v>
@@ -10895,7 +10895,7 @@
         <v>91065771</v>
       </c>
       <c r="H60" t="n">
-        <v>84113077</v>
+        <v>103440577</v>
       </c>
       <c r="I60" t="n">
         <v>78054253</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-33498285</v>
       </c>
       <c r="E63" t="n">
         <v>-33498285</v>
@@ -11945,7 +11945,7 @@
         <v>9787115</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>9787115</v>
       </c>
       <c r="I66" t="n">
         <v>9787115</v>
@@ -12283,7 +12283,7 @@
         <v>-419886</v>
       </c>
       <c r="D68" t="n">
-        <v>1075965</v>
+        <v>-419886</v>
       </c>
       <c r="E68" t="n">
         <v>-9373647</v>
@@ -12458,7 +12458,7 @@
         <v>88826550</v>
       </c>
       <c r="D69" t="n">
-        <v>88826550</v>
+        <v>122324835</v>
       </c>
       <c r="E69" t="n">
         <v>121878440</v>
@@ -12470,7 +12470,7 @@
         <v>108023358</v>
       </c>
       <c r="H69" t="n">
-        <v>98855845</v>
+        <v>108396230</v>
       </c>
       <c r="I69" t="n">
         <v>83331004</v>
@@ -12808,7 +12808,7 @@
         <v>176812127</v>
       </c>
       <c r="D71" t="n">
-        <v>168988008</v>
+        <v>170992462</v>
       </c>
       <c r="E71" t="n">
         <v>136861549</v>
@@ -12820,7 +12820,7 @@
         <v>154140576</v>
       </c>
       <c r="H71" t="n">
-        <v>135384390</v>
+        <v>154711890</v>
       </c>
       <c r="I71" t="n">
         <v>131381836</v>
@@ -13164,7 +13164,7 @@
         <v>23076856</v>
       </c>
       <c r="F73" t="n">
-        <v>15827423</v>
+        <v>63899849</v>
       </c>
       <c r="G73" t="n">
         <v>8252418</v>
@@ -13339,7 +13339,7 @@
         <v>-15581523</v>
       </c>
       <c r="F74" t="n">
-        <v>-10799063</v>
+        <v>-44188607</v>
       </c>
       <c r="G74" t="n">
         <v>-6297625</v>
@@ -13689,7 +13689,7 @@
         <v>7495333</v>
       </c>
       <c r="F76" t="n">
-        <v>5028360</v>
+        <v>19711242</v>
       </c>
       <c r="G76" t="n">
         <v>1954793</v>
@@ -14739,7 +14739,7 @@
         <v>7495333</v>
       </c>
       <c r="F82" t="n">
-        <v>5028360</v>
+        <v>19711242</v>
       </c>
       <c r="G82" t="n">
         <v>1954793</v>
@@ -14914,7 +14914,7 @@
         <v>-1900014</v>
       </c>
       <c r="F83" t="n">
-        <v>-1267928</v>
+        <v>-2704706</v>
       </c>
       <c r="G83" t="n">
         <v>-587078</v>
@@ -15089,7 +15089,7 @@
         <v>-4714693</v>
       </c>
       <c r="F84" t="n">
-        <v>-3512311</v>
+        <v>-5282163</v>
       </c>
       <c r="G84" t="n">
         <v>-2129960</v>
@@ -15264,7 +15264,7 @@
         <v>-71234</v>
       </c>
       <c r="F85" t="n">
-        <v>-32714</v>
+        <v>-72734</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -15439,7 +15439,7 @@
         <v>5598188</v>
       </c>
       <c r="F86" t="n">
-        <v>1497683</v>
+        <v>5309911</v>
       </c>
       <c r="G86" t="n">
         <v>1572105</v>
@@ -15614,7 +15614,7 @@
         <v>-3957471</v>
       </c>
       <c r="F87" t="n">
-        <v>-2295308</v>
+        <v>-5681123</v>
       </c>
       <c r="G87" t="n">
         <v>-812738</v>
@@ -15964,7 +15964,7 @@
         <v>2450109</v>
       </c>
       <c r="F89" t="n">
-        <v>-582218</v>
+        <v>11280427</v>
       </c>
       <c r="G89" t="n">
         <v>-2878</v>
@@ -16139,7 +16139,7 @@
         <v>809392</v>
       </c>
       <c r="F90" t="n">
-        <v>215407</v>
+        <v>11651639</v>
       </c>
       <c r="G90" t="n">
         <v>-762245</v>
@@ -16314,7 +16314,7 @@
         <v>1278496</v>
       </c>
       <c r="F91" t="n">
-        <v>1089759</v>
+        <v>1896688</v>
       </c>
       <c r="G91" t="n">
         <v>664296</v>
@@ -16489,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>-1340025</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -17014,7 +17014,7 @@
         <v>3728605</v>
       </c>
       <c r="F95" t="n">
-        <v>507541</v>
+        <v>11837090</v>
       </c>
       <c r="G95" t="n">
         <v>661418</v>
@@ -17364,7 +17364,7 @@
         <v>-7208333</v>
       </c>
       <c r="F97" t="n">
-        <v>-4577703</v>
+        <v>-7115481</v>
       </c>
       <c r="G97" t="n">
         <v>-4246989</v>
@@ -17539,7 +17539,7 @@
         <v>1278496</v>
       </c>
       <c r="F98" t="n">
-        <v>1089759</v>
+        <v>556663</v>
       </c>
       <c r="G98" t="n">
         <v>664296</v>
@@ -17714,7 +17714,7 @@
         <v>-3479728</v>
       </c>
       <c r="F99" t="n">
-        <v>-4070162</v>
+        <v>4721609</v>
       </c>
       <c r="G99" t="n">
         <v>-3585571</v>
@@ -17889,7 +17889,7 @@
         <v>-5893919</v>
       </c>
       <c r="F100" t="n">
-        <v>-5793443</v>
+        <v>-3645644</v>
       </c>
       <c r="G100" t="n">
         <v>-8416362</v>
@@ -18064,7 +18064,7 @@
         <v>-2076</v>
       </c>
       <c r="F101" t="n">
-        <v>-2077</v>
+        <v>-3047</v>
       </c>
       <c r="G101" t="n">
         <v>-1603</v>
@@ -18239,7 +18239,7 @@
         <v>-5891843</v>
       </c>
       <c r="F102" t="n">
-        <v>-5791366</v>
+        <v>-3642597</v>
       </c>
       <c r="G102" t="n">
         <v>-8414759</v>
@@ -18589,7 +18589,7 @@
         <v>-9373647</v>
       </c>
       <c r="F104" t="n">
-        <v>-9863605</v>
+        <v>1075965</v>
       </c>
       <c r="G104" t="n">
         <v>-12001933</v>
@@ -19114,7 +19114,7 @@
         <v>-9373647</v>
       </c>
       <c r="F107" t="n">
-        <v>-9863605</v>
+        <v>1075965</v>
       </c>
       <c r="G107" t="n">
         <v>-12001933</v>
@@ -19639,7 +19639,7 @@
         <v>-9373647</v>
       </c>
       <c r="F110" t="n">
-        <v>-9863605</v>
+        <v>1075965</v>
       </c>
       <c r="G110" t="n">
         <v>-12001933</v>
@@ -19814,7 +19814,7 @@
         <v>-0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>-0</v>
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>18204579</v>
+        <v>1402918</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -20864,7 +20864,7 @@
         <v>-7208333</v>
       </c>
       <c r="F117" t="n">
-        <v>-4577703</v>
+        <v>-7115481</v>
       </c>
       <c r="G117" t="n">
         <v>-4246989</v>
@@ -21914,7 +21914,7 @@
         <v>-74539</v>
       </c>
       <c r="F123" t="n">
-        <v>-238214</v>
+        <v>-552147</v>
       </c>
       <c r="G123" t="n">
         <v>1146461</v>
@@ -22083,13 +22083,13 @@
         <v>-419886</v>
       </c>
       <c r="D124" t="n">
-        <v>-419886</v>
+        <v>1075965</v>
       </c>
       <c r="E124" t="n">
         <v>-9373647</v>
       </c>
       <c r="F124" t="n">
-        <v>-9863605</v>
+        <v>-419886</v>
       </c>
       <c r="G124" t="n">
         <v>-12001933</v>
@@ -22258,13 +22258,13 @@
         <v>4818265</v>
       </c>
       <c r="D125" t="n">
-        <v>4536115</v>
+        <v>4982927</v>
       </c>
       <c r="E125" t="n">
         <v>7365567</v>
       </c>
       <c r="F125" t="n">
-        <v>6739644</v>
+        <v>4536115</v>
       </c>
       <c r="G125" t="n">
         <v>11103259</v>
@@ -22439,7 +22439,7 @@
         <v>1563814</v>
       </c>
       <c r="F126" t="n">
-        <v>1038367</v>
+        <v>2028815</v>
       </c>
       <c r="G126" t="n">
         <v>906091</v>
@@ -22614,7 +22614,7 @@
         <v>487141</v>
       </c>
       <c r="F127" t="n">
-        <v>487141</v>
+        <v>572772</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         <v>1710388</v>
       </c>
       <c r="D128" t="n">
-        <v>1934528</v>
+        <v>2354340</v>
       </c>
       <c r="E128" t="n">
         <v>5314612</v>
       </c>
       <c r="F128" t="n">
-        <v>5214136</v>
+        <v>1934528</v>
       </c>
       <c r="G128" t="n">
         <v>10197168</v>
@@ -22958,13 +22958,13 @@
         <v>4398379</v>
       </c>
       <c r="D129" t="n">
-        <v>4116229</v>
+        <v>6058892</v>
       </c>
       <c r="E129" t="n">
         <v>-2008080</v>
       </c>
       <c r="F129" t="n">
-        <v>-3123961</v>
+        <v>4116229</v>
       </c>
       <c r="G129" t="n">
         <v>-898674</v>
@@ -23133,13 +23133,13 @@
         <v>-4848057</v>
       </c>
       <c r="D130" t="n">
-        <v>-4091908</v>
+        <v>-6034571</v>
       </c>
       <c r="E130" t="n">
         <v>1111372</v>
       </c>
       <c r="F130" t="n">
-        <v>3072959</v>
+        <v>-4091908</v>
       </c>
       <c r="G130" t="n">
         <v>2045135</v>
@@ -23314,7 +23314,7 @@
         <v>-896708</v>
       </c>
       <c r="F131" t="n">
-        <v>-51002</v>
+        <v>24321</v>
       </c>
       <c r="G131" t="n">
         <v>1146461</v>
@@ -23489,7 +23489,7 @@
         <v>822169</v>
       </c>
       <c r="F132" t="n">
-        <v>-187212</v>
+        <v>-576468</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>128310</v>
       </c>
       <c r="F133" t="n">
-        <v>128310</v>
+        <v>370885</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>128310</v>
       </c>
       <c r="F135" t="n">
-        <v>128310</v>
+        <v>370885</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>53771</v>
       </c>
       <c r="F136" t="n">
-        <v>-109904</v>
+        <v>-181262</v>
       </c>
       <c r="G136" t="n">
         <v>1146461</v>
@@ -24364,7 +24364,7 @@
         <v>-156074</v>
       </c>
       <c r="F137" t="n">
-        <v>71262</v>
+        <v>9835</v>
       </c>
       <c r="G137" t="n">
         <v>-1174105</v>
@@ -24889,7 +24889,7 @@
         <v>232330</v>
       </c>
       <c r="F140" t="n">
-        <v>232329</v>
+        <v>232330</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>76256</v>
       </c>
       <c r="F141" t="n">
-        <v>303591</v>
+        <v>242165</v>
       </c>
       <c r="G141" t="n">
         <v>-1174105</v>
@@ -25239,7 +25239,7 @@
         <v>130027</v>
       </c>
       <c r="F142" t="n">
-        <v>193687</v>
+        <v>60903</v>
       </c>
       <c r="G142" t="n">
         <v>-27644</v>
@@ -25764,7 +25764,7 @@
         <v>130027</v>
       </c>
       <c r="F145" t="n">
-        <v>193687</v>
+        <v>60903</v>
       </c>
       <c r="G145" t="n">
         <v>-27644</v>
@@ -26289,7 +26289,7 @@
         <v>182029</v>
       </c>
       <c r="F148" t="n">
-        <v>245689</v>
+        <v>112905</v>
       </c>
       <c r="G148" t="n">
         <v>24358</v>
